--- a/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
+++ b/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Testing the effect of VC and geometry setup for simulations in which we use either a single falling block or 8 multiple spheres</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Total solve [s]</t>
   </si>
   <si>
-    <t>Coupled MG, with GMRES/BJACOBI at coarse level solved to 1e-5 precision and GMRES/Jacobi(20,20) smoothers and GCR outer iteration and 64^3 resolution, using 4 CPUs; 5 GMG levels</t>
-  </si>
-  <si>
     <t>&gt;1000</t>
   </si>
   <si>
-    <t>Setup:</t>
-  </si>
-  <si>
     <t>Setup:FallingBlock_canonical_BlockMG_accurateCoarse.dat and MultipleSpheres_canonical_BlockMG_accurateCoarse.dat</t>
   </si>
   <si>
@@ -63,28 +57,28 @@
     <t>We reproduce the setup described in the pTatin SC paper of May et al. (2014) with  the same parameters, running the sim for 1 timesteps</t>
   </si>
   <si>
-    <t>Blocked matrix and MG, with GMRES/BJACOBI at coarse level solved to 1e-5 precision and GMRES/Jacobi(20,20) smoothers and GCR outer iteration(rtol 1e-5) and 32^3 resolution, using 4 CPUs; 5 GMG levels</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>&gt;3000</t>
-  </si>
-  <si>
     <t>COUPLED MG with -pcmat_no_dev_proj option</t>
   </si>
   <si>
     <t>COUPLED MG without -pcmat_no_dev_proj option</t>
   </si>
   <si>
-    <t>STALLS</t>
-  </si>
-  <si>
     <t>COUPLED MG with -pcmat_no_dev_proj option but computing viscosity contrast by having a matrix viscosity 1 and block viscosity as indicated</t>
   </si>
   <si>
-    <t xml:space="preserve">STALLS </t>
+    <t>Coupled MG, with GMRES/BJACOBI at coarse level solved to 1e-5 precision and GMRES/Jacobi(20,20) smoothers and FGMRES outer iteration and 32^3 resolution, using 4 CPUs; 5 GMG levels</t>
+  </si>
+  <si>
+    <t>Setup: FallingBlock_canonical_BlockMG_accurateCoarse.dat and MultipleSpheres_canonical_BlockMG_accurateCoarse.dat</t>
+  </si>
+  <si>
+    <t>Blocked matrix and MG, with GMRES/BJACOBI at coarse level solved to 1e-5 precision and GMRES/Jacobi(20,20) smoothers and FGMRES outer iteration(rtol 1e-5) and 32^3 resolution, using 4 CPUs; 5 GMG levels</t>
+  </si>
+  <si>
+    <t>&gt;5000</t>
   </si>
 </sst>
 </file>
@@ -191,7 +185,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,8 +209,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,8 +237,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -244,6 +253,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -255,6 +270,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M30"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -599,6 +620,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -608,33 +630,33 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -646,14 +668,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="H11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="L11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="L11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
@@ -674,37 +696,30 @@
       <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="H13">
         <v>6</v>
-      </c>
-      <c r="I13">
-        <v>0.79</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -715,22 +730,19 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1.24</v>
+        <v>1.78</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>1.2549999999999999</v>
+        <v>11</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -741,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>1.65</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -753,13 +765,10 @@
         <v>2.21</v>
       </c>
       <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>1.73</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -767,69 +776,83 @@
         <v>1000</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>3.21</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>5.16</v>
+        <v>4.41</v>
       </c>
       <c r="H16">
-        <v>109</v>
-      </c>
-      <c r="I16">
-        <v>11.5</v>
+        <v>43</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>10000</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B17">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D17">
+        <v>168</v>
+      </c>
+      <c r="E17">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="H17">
+        <v>168</v>
+      </c>
+      <c r="L17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>136</v>
+      </c>
+      <c r="C18">
+        <v>13.69</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L17">
-        <v>144</v>
+      <c r="L18">
+        <v>1258</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="C23" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -879,6 +902,12 @@
       <c r="C26">
         <v>0.86499999999999999</v>
       </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0.85</v>
+      </c>
       <c r="H26">
         <v>3</v>
       </c>
@@ -896,11 +925,17 @@
       <c r="C27">
         <v>2.3959999999999999</v>
       </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>2.54</v>
+      </c>
       <c r="H27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>3.6880000000000002</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -908,16 +943,22 @@
         <v>100</v>
       </c>
       <c r="B28" s="11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>5.66</v>
+        <v>3.63</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>7.59</v>
       </c>
       <c r="H28" s="11">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I28" s="11">
-        <v>24.4</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -925,27 +966,53 @@
         <v>1000</v>
       </c>
       <c r="B29" s="11">
-        <v>395</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>102</v>
+        <v>6.08</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>22.9</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8">
         <v>10000</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>10.93</v>
+      </c>
+      <c r="D30">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>70.3</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
+++ b/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Testing the effect of VC and geometry setup for simulations in which we use either a single falling block or 8 multiple spheres</t>
   </si>
@@ -78,7 +78,13 @@
     <t>Blocked matrix and MG, with GMRES/BJACOBI at coarse level solved to 1e-5 precision and GMRES/Jacobi(20,20) smoothers and FGMRES outer iteration(rtol 1e-5) and 32^3 resolution, using 4 CPUs; 5 GMG levels</t>
   </si>
   <si>
-    <t>&gt;5000</t>
+    <t>Coupled MG with Anton's favorite solver options</t>
+  </si>
+  <si>
+    <t>Setup: FallingBlock_canonical_coupledMG_directCoarse.dat and MultipleSpheres_canonical_coupledMG_directCoarse.dat</t>
+  </si>
+  <si>
+    <t>25?</t>
   </si>
 </sst>
 </file>
@@ -185,8 +191,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -241,7 +265,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +283,15 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -276,6 +309,15 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -713,16 +755,16 @@
         <v>0.96</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -736,16 +778,16 @@
         <v>1.78</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -759,16 +801,16 @@
         <v>2.2959999999999998</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>2.21</v>
+        <v>3.58</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -782,16 +824,16 @@
         <v>3.3279999999999998</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>4.41</v>
+        <v>7.82</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -805,16 +847,16 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D17">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E17">
-        <v>17.920000000000002</v>
+        <v>31.2</v>
       </c>
       <c r="H17">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="L17">
-        <v>175</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -828,13 +870,13 @@
         <v>13.69</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>1258</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1013,6 +1055,171 @@
       </c>
       <c r="H31" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="C38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="H39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="8">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="8">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="8">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>19</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <v>41</v>
+      </c>
+      <c r="L44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>141</v>
+      </c>
+      <c r="L45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="D46" s="11">
+        <v>88</v>
+      </c>
+      <c r="E46">
+        <v>5.51</v>
+      </c>
+      <c r="H46">
+        <v>585</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
+++ b/input_models/FB_tests_canonical/FB_vs_MultipleSpheres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Testing the effect of VC and geometry setup for simulations in which we use either a single falling block or 8 multiple spheres</t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>25?</t>
+  </si>
+  <si>
+    <t>Not attached</t>
+  </si>
+  <si>
+    <t>VC 1e4; 32^3</t>
+  </si>
+  <si>
+    <t>VC 1e4; 64^3</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>Effect of attaching or not attaching the nullspace to the convergence rate. Numbers refer to the release of LaMEM. r5698 - not attached; r.5707 - attached; We do a 8-sphere setup with VC 1e4 and report # of iterations</t>
+  </si>
+  <si>
+    <t>&gt;500</t>
+  </si>
+  <si>
+    <t>COUPLED MG; GMRES/GAMG coarse grid solver</t>
+  </si>
+  <si>
+    <t>VC 1e4; 128*64*64</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>VC 1e5; 32^3</t>
+  </si>
+  <si>
+    <t>VC 1e5; 64^3</t>
+  </si>
+  <si>
+    <t>BLOCKED MG; GMRES/GAMG coarse grid solver</t>
+  </si>
+  <si>
+    <t>Tests are done with the file MultipleSpheres_canonical_coupledMG_accurateCoarse.dat  and MultipleSpheres_canonical_coupledMG_directCoarse.dat with GAMG solver switched on</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
   </si>
 </sst>
 </file>
@@ -156,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +223,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,8 +293,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,8 +336,9 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -292,6 +365,18 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +403,18 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,17 +744,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M46"/>
+  <dimension ref="A2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -1220,6 +1317,123 @@
       </c>
       <c r="L46" s="10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>70</v>
+      </c>
+      <c r="F57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="E59">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>316</v>
+      </c>
+      <c r="C62">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
